--- a/TakeHome.xlsx
+++ b/TakeHome.xlsx
@@ -9,11 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="July" sheetId="3" r:id="rId3"/>
+    <sheet name="August" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="Income Tax" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>Take Home Calculation</t>
   </si>
@@ -105,10 +110,127 @@
     <t>On Hand</t>
   </si>
   <si>
-    <t>Other Insurance( Car, LIC, Mediclaim)</t>
-  </si>
-  <si>
     <t>Photo Theraphy</t>
+  </si>
+  <si>
+    <t>Other Insurance( Car, LIC, Mediclaim), transfer to IDBI</t>
+  </si>
+  <si>
+    <t>Sumi</t>
+  </si>
+  <si>
+    <t>Transfer To</t>
+  </si>
+  <si>
+    <t>SBI</t>
+  </si>
+  <si>
+    <t>IDBI Me</t>
+  </si>
+  <si>
+    <t>IDBI Sumi</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>(Done)</t>
+  </si>
+  <si>
+    <t>Withdraw</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Flipkart Pay Later</t>
+  </si>
+  <si>
+    <t>Pre hostipitalisation mandatory test</t>
+  </si>
+  <si>
+    <t>Common Charges + Electric</t>
+  </si>
+  <si>
+    <t>SBI Me</t>
+  </si>
+  <si>
+    <t>Ma + Sumi Ma</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>Accnture</t>
+  </si>
+  <si>
+    <t>NPS</t>
+  </si>
+  <si>
+    <t>80C</t>
+  </si>
+  <si>
+    <t>80G</t>
+  </si>
+  <si>
+    <t>Taxable</t>
+  </si>
+  <si>
+    <t>Professional Tax</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Tax Paid</t>
+  </si>
+  <si>
+    <t>Tax Need to Pay</t>
+  </si>
+  <si>
+    <t>Leave Encashment</t>
+  </si>
+  <si>
+    <t>Rent(HRA)</t>
+  </si>
+  <si>
+    <t>Standard Deduction</t>
+  </si>
+  <si>
+    <t>NPS Parked</t>
+  </si>
+  <si>
+    <t>80D</t>
+  </si>
+  <si>
+    <t>Deduction</t>
+  </si>
+  <si>
+    <t>Doctor Visit Fees</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>Common Charges</t>
+  </si>
+  <si>
+    <t>Electric Bill</t>
   </si>
 </sst>
 </file>
@@ -132,12 +254,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,10 +286,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,12 +631,12 @@
       <c r="Q1">
         <v>65100</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -591,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,7 +759,7 @@
       </c>
       <c r="E1" s="2">
         <f>SUM(E2:E10)</f>
-        <v>27018</v>
+        <v>29018</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
@@ -625,7 +767,7 @@
       </c>
       <c r="H1" s="2">
         <f>SUM(H2:H10)</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" t="s">
@@ -652,14 +794,14 @@
         <v>22</v>
       </c>
       <c r="H2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
       <c r="K2">
         <f>B1+E1+H1</f>
-        <v>68948</v>
+        <v>75948</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -680,18 +822,18 @@
       </c>
       <c r="K3">
         <f>K1-K2</f>
-        <v>21052</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>14052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
         <v>1300</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E4">
         <v>10000</v>
@@ -718,13 +860,800 @@
       <c r="B6">
         <v>6000</v>
       </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>2000</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>2400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>99638</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1">
+        <f>SUM(E2:E19)</f>
+        <v>83345</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1">
+        <f>B1-E1</f>
+        <v>16293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>14000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>10000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>12000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>6500</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>13230</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>5998</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>11500</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>1694</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>5000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>1168</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12">
+        <v>692</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>780</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14">
+        <v>783</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5">
+        <v>110000</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5">
+        <f>SUM(E2:E19)</f>
+        <v>68728</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="5">
+        <f>B1-E1</f>
+        <v>41272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>13230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>5998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>5000</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.453125" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E1" s="3">
+        <f>SUM(B1:B20)</f>
+        <v>77428</v>
+      </c>
+      <c r="H1" s="3">
+        <v>45207.99</v>
+      </c>
+      <c r="I1" s="3">
+        <f>SUM(H1:H10)</f>
+        <v>105273.17</v>
+      </c>
+      <c r="K1" s="3">
+        <v>5425</v>
+      </c>
+      <c r="L1" s="3">
+        <f>SUM(K1:K5)</f>
+        <v>13625</v>
+      </c>
+      <c r="N1" s="3">
+        <f>(I1-L1)</f>
+        <v>91648.17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="3">
+        <f>N1-E1</f>
+        <v>14220.169999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3">
+        <v>13230</v>
+      </c>
+      <c r="H2" s="3">
+        <v>22604.01</v>
+      </c>
+      <c r="K2" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>34111.17</v>
+      </c>
+      <c r="K3" s="3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H5" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1">
+        <v>7170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="6">
+        <v>43221</v>
+      </c>
+      <c r="B1">
+        <v>79743</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1">
+        <f>SUM(B1:B13)-B15</f>
+        <v>1367926.53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1">
+        <v>2600</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1">
+        <v>12500</v>
+      </c>
+      <c r="N1">
+        <f>IF(((E8-1000000)*30%)&gt;0, ((E8-1000000)*30%), 0)</f>
+        <v>3793.6590000000083</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>43252</v>
+      </c>
+      <c r="B2" s="7">
+        <v>98880.94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2">
+        <v>50000</v>
+      </c>
+      <c r="J2">
+        <f>SUM(H1:H24)</f>
+        <v>355281</v>
+      </c>
+      <c r="L2">
+        <f>IF(E8&lt;1000000, N2, 100000)</f>
+        <v>100000</v>
+      </c>
+      <c r="N2">
+        <f>IF(((E8-500000)*20%)&gt;0, (E8-500000)*20%, 0)</f>
+        <v>102529.10600000001</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>43282</v>
+      </c>
+      <c r="B3" s="7">
+        <v>119880.77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="8">
+        <v>98991</v>
+      </c>
+      <c r="L3">
+        <f>IF(E8&gt;1000000,N1,0)</f>
+        <v>3793.6590000000083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>43313</v>
+      </c>
+      <c r="B4" s="7">
+        <v>98220.65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>43344</v>
+      </c>
+      <c r="B5" s="7">
+        <v>99570.52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>43374</v>
+      </c>
+      <c r="B6" s="7">
+        <v>133993.35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>43405</v>
+      </c>
+      <c r="B7" s="7">
+        <v>98970.92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>43435</v>
+      </c>
+      <c r="B8" s="7">
+        <v>100670.76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <f>E1-SUM(H1:H24)</f>
+        <v>1012645.53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>43466</v>
+      </c>
+      <c r="B9" s="7">
+        <v>133808.82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <f>SUM(L1:L3)</f>
+        <v>116293.65900000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>43497</v>
+      </c>
+      <c r="B10" s="7">
+        <v>99570.87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <f>E9*4%</f>
+        <v>4651.746360000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>43525</v>
+      </c>
+      <c r="B11" s="7">
+        <v>104723.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="7">
+        <v>151117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <f>(E9+E10)</f>
+        <v>120945.40536000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="7">
+        <v>48781</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>93778.880000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="Q14">
+        <v>243904.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="4">
+        <f>(E12-E13)</f>
+        <v>27166.525360000014</v>
+      </c>
+      <c r="Q15">
+        <v>14762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q16">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q17">
+        <f>SUM(Q14:Q16)</f>
+        <v>261047.41</v>
+      </c>
+    </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q18">
+        <f>Q17*2</f>
+        <v>522094.82</v>
       </c>
     </row>
   </sheetData>
